--- a/ImageMetaExtractorApp/documents/Design_FavMeta.xlsx
+++ b/ImageMetaExtractorApp/documents/Design_FavMeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_hos\source\mygithub\ImageCompareViewer\ImageMetaExtractorApp\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94998E32-BAFA-4968-B384-E458442DD379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8142C750-5976-4257-8846-CF9F44F8D9EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,13 +549,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -572,8 +572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="2295524"/>
-          <a:ext cx="1647825" cy="1533525"/>
+          <a:off x="8953501" y="2295524"/>
+          <a:ext cx="1409700" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,6 +1726,130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEE8414-C554-4BB7-83F2-9577AA8C7C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982450" y="2943224"/>
+          <a:ext cx="2200275" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>ImageMetaExtractor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t> (DLL)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767FAE23-5F15-4590-B5B6-26D0625AA3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="3267075"/>
+          <a:ext cx="1628775" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1995,7 +2119,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
